--- a/app/static/sheet2.xlsx
+++ b/app/static/sheet2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dada/workspace/fix_grid/app/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D95CAC9-30BC-AC4E-AE72-281CC0F3ECF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612CF863-70DF-FA4B-B2A3-69E7F82474C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="16760" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="工作表1" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'(表二)停水彙整表'!$A$4:$N$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'(表二)停水彙整表'!$A$4:$O$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">工作表1!$A$1:$B$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>林園區立汯水泥公司大型鐵皮掛在電線桿上面、小型工廠全部沒電、聯絡電話許先生0932725822</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,10 @@
   <si>
     <t>已復水
 (確認請回復"是")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -633,13 +637,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,18 +738,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -724,16 +777,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,11 +1112,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -1074,70 +1127,74 @@
     <col min="5" max="5" width="25.1640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="19.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="4"/>
+    <col min="9" max="9" width="19.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:15" ht="34.5" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="24"/>
+      <c r="G1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-    </row>
-    <row r="2" spans="1:14" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="1:14" ht="34.5" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+    </row>
+    <row r="3" spans="1:15" ht="34.5" customHeight="1">
+      <c r="A3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
-    </row>
-    <row r="4" spans="1:14" ht="43.5" customHeight="1">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
+    </row>
+    <row r="4" spans="1:15" ht="43.5" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
@@ -1162,55 +1219,59 @@
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="57" customHeight="1">
+    <row r="5" spans="1:15" ht="57" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="9" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="28">
+      <c r="M5" s="7"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="19">
         <v>1</v>
       </c>
       <c r="B6" s="13"/>
@@ -1220,15 +1281,16 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="5"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="28">
+      <c r="N6" s="5"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="19">
         <v>2</v>
       </c>
       <c r="B7" s="13"/>
@@ -1238,15 +1300,16 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="5"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="14"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="28">
+      <c r="N7" s="5"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
       <c r="B8" s="13"/>
@@ -1256,15 +1319,16 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="5"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="28">
+      <c r="N8" s="5"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="19">
         <v>4</v>
       </c>
       <c r="B9" s="13"/>
@@ -1274,15 +1338,16 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="5"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="28">
+      <c r="N9" s="5"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="19">
         <v>5</v>
       </c>
       <c r="B10" s="13"/>
@@ -1292,15 +1357,16 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="5"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="28">
+      <c r="N10" s="5"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="19">
         <v>6</v>
       </c>
       <c r="B11" s="13"/>
@@ -1310,15 +1376,16 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="5"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="14"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="28">
+      <c r="N11" s="5"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="19">
         <v>7</v>
       </c>
       <c r="B12" s="13"/>
@@ -1328,15 +1395,16 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="5"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="28">
+      <c r="N12" s="5"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="19">
         <v>8</v>
       </c>
       <c r="B13" s="13"/>
@@ -1346,15 +1414,16 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="5"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="28">
+      <c r="N13" s="5"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="19">
         <v>9</v>
       </c>
       <c r="B14" s="13"/>
@@ -1364,15 +1433,16 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="5"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="28">
+      <c r="N14" s="5"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="19">
         <v>10</v>
       </c>
       <c r="B15" s="13"/>
@@ -1382,15 +1452,16 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="5"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="28">
+      <c r="N15" s="5"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="19">
         <v>11</v>
       </c>
       <c r="B16" s="13"/>
@@ -1400,15 +1471,16 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="5"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="28">
+      <c r="N16" s="5"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="19">
         <v>12</v>
       </c>
       <c r="B17" s="13"/>
@@ -1418,15 +1490,16 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="5"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="14"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="28">
+      <c r="N17" s="5"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="19">
         <v>13</v>
       </c>
       <c r="B18" s="13"/>
@@ -1436,15 +1509,16 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="5"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="14"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="28">
+      <c r="N18" s="5"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="19">
         <v>14</v>
       </c>
       <c r="B19" s="13"/>
@@ -1454,15 +1528,16 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="5"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="14"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="28">
+      <c r="N19" s="5"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="19">
         <v>15</v>
       </c>
       <c r="B20" s="13"/>
@@ -1472,15 +1547,16 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="5"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="14"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="28">
+      <c r="N20" s="5"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="19">
         <v>16</v>
       </c>
       <c r="B21" s="13"/>
@@ -1490,15 +1566,16 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="5"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="14"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="28">
+      <c r="N21" s="5"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="19">
         <v>17</v>
       </c>
       <c r="B22" s="13"/>
@@ -1508,15 +1585,16 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="5"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="14"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="28">
+      <c r="N22" s="5"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="19">
         <v>18</v>
       </c>
       <c r="B23" s="13"/>
@@ -1526,15 +1604,16 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="5"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="14"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="28">
+      <c r="N23" s="5"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="19">
         <v>19</v>
       </c>
       <c r="B24" s="13"/>
@@ -1544,15 +1623,16 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="5"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="14"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="28">
+      <c r="N24" s="5"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="19">
         <v>20</v>
       </c>
       <c r="B25" s="13"/>
@@ -1562,15 +1642,16 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="5"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="14"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="28">
+      <c r="N25" s="5"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="19">
         <v>21</v>
       </c>
       <c r="B26" s="13"/>
@@ -1580,15 +1661,16 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="5"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="14"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="28">
+      <c r="N26" s="5"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="19">
         <v>22</v>
       </c>
       <c r="B27" s="13"/>
@@ -1598,15 +1680,16 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="5"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="14"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="28">
+      <c r="N27" s="5"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="19">
         <v>23</v>
       </c>
       <c r="B28" s="13"/>
@@ -1616,15 +1699,16 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="5"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="14"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="28">
+      <c r="N28" s="5"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="19">
         <v>24</v>
       </c>
       <c r="B29" s="13"/>
@@ -1634,15 +1718,16 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="5"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="14"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="28">
+      <c r="N29" s="5"/>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="19">
         <v>25</v>
       </c>
       <c r="B30" s="13"/>
@@ -1652,15 +1737,16 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="5"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="14"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="28">
+      <c r="N30" s="5"/>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="19">
         <v>26</v>
       </c>
       <c r="B31" s="13"/>
@@ -1670,15 +1756,16 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="5"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="14"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="28">
+      <c r="N31" s="5"/>
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="19">
         <v>27</v>
       </c>
       <c r="B32" s="13"/>
@@ -1688,15 +1775,16 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="5"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="14"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="28">
+      <c r="N32" s="5"/>
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="19">
         <v>28</v>
       </c>
       <c r="B33" s="13"/>
@@ -1706,15 +1794,16 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="5"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="14"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="28">
+      <c r="N33" s="5"/>
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="19">
         <v>29</v>
       </c>
       <c r="B34" s="13"/>
@@ -1724,15 +1813,16 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="5"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="14"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="28">
+      <c r="N34" s="5"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="19">
         <v>30</v>
       </c>
       <c r="B35" s="13"/>
@@ -1742,15 +1832,16 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="5"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="14"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="28"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="19"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
@@ -1758,26 +1849,27 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="5"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="14"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="7"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A4:O4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
-    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A2:O2"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="G1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I2:J2 J3 I4:J5 I37:J1048576">
+  <conditionalFormatting sqref="J2:K2 K3 J4:K5 J37:K1048576">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="否">
-      <formula>NOT(ISERROR(SEARCH("否",I2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("否",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/static/sheet2.xlsx
+++ b/app/static/sheet2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dada/workspace/fix_grid/app/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612CF863-70DF-FA4B-B2A3-69E7F82474C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E16C0D4-18BA-994D-8BA9-BFE352EDF0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="16760" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,6 +750,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -762,6 +771,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,18 +787,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,11 +1112,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="4" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -1138,61 +1138,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="G1" s="31" t="s">
+      <c r="B1" s="27"/>
+      <c r="G1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:15" ht="43.5" customHeight="1">
       <c r="A4" s="12" t="s">
@@ -1219,7 +1219,7 @@
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="23" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="18" t="s">
@@ -1258,7 +1258,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="34"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="9" t="s">
         <v>33</v>
       </c>
@@ -1271,9 +1271,7 @@
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="19">
-        <v>1</v>
-      </c>
+      <c r="A6" s="19"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
@@ -1281,7 +1279,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="35"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="20"/>
       <c r="K6" s="16"/>
       <c r="L6" s="14"/>
@@ -1290,9 +1288,7 @@
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="19">
-        <v>2</v>
-      </c>
+      <c r="A7" s="19"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -1300,7 +1296,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="35"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="20"/>
       <c r="K7" s="16"/>
       <c r="L7" s="14"/>
@@ -1309,9 +1305,7 @@
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="19">
-        <v>3</v>
-      </c>
+      <c r="A8" s="19"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
@@ -1319,7 +1313,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="35"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="20"/>
       <c r="K8" s="16"/>
       <c r="L8" s="14"/>
@@ -1328,9 +1322,7 @@
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="19">
-        <v>4</v>
-      </c>
+      <c r="A9" s="19"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -1338,7 +1330,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="35"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="20"/>
       <c r="K9" s="16"/>
       <c r="L9" s="14"/>
@@ -1347,9 +1339,7 @@
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="19">
-        <v>5</v>
-      </c>
+      <c r="A10" s="19"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
@@ -1357,7 +1347,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="35"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="20"/>
       <c r="K10" s="16"/>
       <c r="L10" s="14"/>
@@ -1366,9 +1356,7 @@
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="19">
-        <v>6</v>
-      </c>
+      <c r="A11" s="19"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
@@ -1376,7 +1364,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="35"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="20"/>
       <c r="K11" s="16"/>
       <c r="L11" s="14"/>
@@ -1385,9 +1373,7 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="19">
-        <v>7</v>
-      </c>
+      <c r="A12" s="19"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
@@ -1395,7 +1381,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="35"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="20"/>
       <c r="K12" s="16"/>
       <c r="L12" s="14"/>
@@ -1404,9 +1390,7 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="19">
-        <v>8</v>
-      </c>
+      <c r="A13" s="19"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
@@ -1414,7 +1398,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="35"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="20"/>
       <c r="K13" s="16"/>
       <c r="L13" s="14"/>
@@ -1423,9 +1407,7 @@
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="19">
-        <v>9</v>
-      </c>
+      <c r="A14" s="19"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
@@ -1433,7 +1415,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="35"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="20"/>
       <c r="K14" s="16"/>
       <c r="L14" s="14"/>
@@ -1442,9 +1424,7 @@
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="19">
-        <v>10</v>
-      </c>
+      <c r="A15" s="19"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
@@ -1452,7 +1432,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="35"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="20"/>
       <c r="K15" s="16"/>
       <c r="L15" s="14"/>
@@ -1461,9 +1441,7 @@
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="19">
-        <v>11</v>
-      </c>
+      <c r="A16" s="19"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
@@ -1471,7 +1449,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="35"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="20"/>
       <c r="K16" s="16"/>
       <c r="L16" s="14"/>
@@ -1480,9 +1458,7 @@
       <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="19">
-        <v>12</v>
-      </c>
+      <c r="A17" s="19"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
@@ -1490,7 +1466,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="35"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="20"/>
       <c r="K17" s="16"/>
       <c r="L17" s="14"/>
@@ -1499,9 +1475,7 @@
       <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="19">
-        <v>13</v>
-      </c>
+      <c r="A18" s="19"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
@@ -1509,7 +1483,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="35"/>
+      <c r="I18" s="25"/>
       <c r="J18" s="20"/>
       <c r="K18" s="16"/>
       <c r="L18" s="14"/>
@@ -1518,9 +1492,7 @@
       <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="19">
-        <v>14</v>
-      </c>
+      <c r="A19" s="19"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
@@ -1528,7 +1500,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="35"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="20"/>
       <c r="K19" s="16"/>
       <c r="L19" s="14"/>
@@ -1537,9 +1509,7 @@
       <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="19">
-        <v>15</v>
-      </c>
+      <c r="A20" s="19"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
@@ -1547,7 +1517,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="35"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="20"/>
       <c r="K20" s="16"/>
       <c r="L20" s="14"/>
@@ -1556,9 +1526,7 @@
       <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="19">
-        <v>16</v>
-      </c>
+      <c r="A21" s="19"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
@@ -1566,7 +1534,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="35"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="20"/>
       <c r="K21" s="16"/>
       <c r="L21" s="14"/>
@@ -1575,9 +1543,7 @@
       <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="19">
-        <v>17</v>
-      </c>
+      <c r="A22" s="19"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
@@ -1585,7 +1551,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="35"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="20"/>
       <c r="K22" s="16"/>
       <c r="L22" s="14"/>
@@ -1594,9 +1560,7 @@
       <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="19">
-        <v>18</v>
-      </c>
+      <c r="A23" s="19"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
@@ -1604,7 +1568,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="35"/>
+      <c r="I23" s="25"/>
       <c r="J23" s="20"/>
       <c r="K23" s="16"/>
       <c r="L23" s="14"/>
@@ -1613,9 +1577,7 @@
       <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="19">
-        <v>19</v>
-      </c>
+      <c r="A24" s="19"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
@@ -1623,7 +1585,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="35"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="20"/>
       <c r="K24" s="16"/>
       <c r="L24" s="14"/>
@@ -1632,9 +1594,7 @@
       <c r="O24" s="7"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="19">
-        <v>20</v>
-      </c>
+      <c r="A25" s="19"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
@@ -1642,7 +1602,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="35"/>
+      <c r="I25" s="25"/>
       <c r="J25" s="20"/>
       <c r="K25" s="16"/>
       <c r="L25" s="14"/>
@@ -1651,9 +1611,7 @@
       <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="19">
-        <v>21</v>
-      </c>
+      <c r="A26" s="19"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
@@ -1661,7 +1619,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="35"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="20"/>
       <c r="K26" s="16"/>
       <c r="L26" s="14"/>
@@ -1670,9 +1628,7 @@
       <c r="O26" s="7"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="19">
-        <v>22</v>
-      </c>
+      <c r="A27" s="19"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
@@ -1680,7 +1636,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="35"/>
+      <c r="I27" s="25"/>
       <c r="J27" s="20"/>
       <c r="K27" s="16"/>
       <c r="L27" s="14"/>
@@ -1689,9 +1645,7 @@
       <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="19">
-        <v>23</v>
-      </c>
+      <c r="A28" s="19"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
@@ -1699,7 +1653,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="35"/>
+      <c r="I28" s="25"/>
       <c r="J28" s="20"/>
       <c r="K28" s="16"/>
       <c r="L28" s="14"/>
@@ -1708,9 +1662,7 @@
       <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="19">
-        <v>24</v>
-      </c>
+      <c r="A29" s="19"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
@@ -1718,7 +1670,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="35"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="20"/>
       <c r="K29" s="16"/>
       <c r="L29" s="14"/>
@@ -1727,9 +1679,7 @@
       <c r="O29" s="7"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="19">
-        <v>25</v>
-      </c>
+      <c r="A30" s="19"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
@@ -1737,7 +1687,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="35"/>
+      <c r="I30" s="25"/>
       <c r="J30" s="20"/>
       <c r="K30" s="16"/>
       <c r="L30" s="14"/>
@@ -1746,9 +1696,7 @@
       <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="19">
-        <v>26</v>
-      </c>
+      <c r="A31" s="19"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
@@ -1756,7 +1704,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="35"/>
+      <c r="I31" s="25"/>
       <c r="J31" s="20"/>
       <c r="K31" s="16"/>
       <c r="L31" s="14"/>
@@ -1765,9 +1713,7 @@
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="19">
-        <v>27</v>
-      </c>
+      <c r="A32" s="19"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
@@ -1775,7 +1721,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="35"/>
+      <c r="I32" s="25"/>
       <c r="J32" s="20"/>
       <c r="K32" s="16"/>
       <c r="L32" s="14"/>
@@ -1784,9 +1730,7 @@
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="19">
-        <v>28</v>
-      </c>
+      <c r="A33" s="19"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14"/>
@@ -1794,7 +1738,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="35"/>
+      <c r="I33" s="25"/>
       <c r="J33" s="20"/>
       <c r="K33" s="16"/>
       <c r="L33" s="14"/>
@@ -1803,9 +1747,7 @@
       <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="19">
-        <v>29</v>
-      </c>
+      <c r="A34" s="19"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
@@ -1813,7 +1755,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="35"/>
+      <c r="I34" s="25"/>
       <c r="J34" s="20"/>
       <c r="K34" s="16"/>
       <c r="L34" s="14"/>
@@ -1822,9 +1764,7 @@
       <c r="O34" s="7"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="19">
-        <v>30</v>
-      </c>
+      <c r="A35" s="19"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
@@ -1832,7 +1772,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="35"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="20"/>
       <c r="K35" s="16"/>
       <c r="L35" s="14"/>
@@ -1849,13 +1789,540 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="35"/>
+      <c r="I36" s="25"/>
       <c r="J36" s="20"/>
       <c r="K36" s="16"/>
       <c r="L36" s="14"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="19"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="19"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="19"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="19"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="19"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="19"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="19"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="7"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="19"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="19"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="19"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="19"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="19"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="19"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="19"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="19"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="19"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="19"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="19"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="19"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="7"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="19"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="7"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="19"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="19"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="7"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="19"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="7"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="19"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="7"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="19"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="7"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="19"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="7"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="19"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="7"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="19"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="7"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="19"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="7"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="19"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="7"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="19"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:O4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -1867,7 +2334,7 @@
     <mergeCell ref="G1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J2:K2 K3 J4:K5 J37:K1048576">
+  <conditionalFormatting sqref="J2:K2 K3 J4:K5 J68:K1048576">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",J2)))</formula>
     </cfRule>
